--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>924015.515894734</v>
+        <v>958655.8086645805</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6787679.511676808</v>
+        <v>7309245.199813607</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>247.8853163645411</v>
       </c>
       <c r="D2" t="n">
-        <v>92.24160738587841</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8834167598883</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -899,13 +901,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>205.0783572980732</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>71.16696941141539</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>52.51170991984812</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,13 +1141,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>149.2887204007741</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>133.6791025065772</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.24876144511806</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>192.0192677469487</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>292.9993288191084</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1143223529979</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>137.883416759889</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480023073</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>152.5168019860612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,10 +2298,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>166.3197703738366</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>82.14201637551371</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>79.58540461744359</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>240.0140372138968</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>82.14201637551371</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>22.28782598961422</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>105.5221355076925</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>35.47248331510115</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048285</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>177.7017008738665</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>126.7641785672305</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480023073</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.8253404203546</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C2" t="n">
-        <v>893.723271644182</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503654</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4334,46 +4336,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>1462.721985931055</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N2" t="n">
-        <v>1462.721985931055</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O2" t="n">
-        <v>1462.721985931055</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.124910905262</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4404,13 +4406,13 @@
         <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1992.21944446061</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
         <v>2012.149109705013</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705994</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C4" t="n">
         <v>794.0196728252577</v>
@@ -4486,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>752.2549115535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>314.1124387369571</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
         <v>53.40121652862856</v>
@@ -4568,49 +4570,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
         <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2598.174998743129</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2598.174998743129</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2598.174998743129</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2235.558048676956</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>2234.742998128393</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>2219.640938748108</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.395219088166</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1019.910233398507</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>847.3485218817324</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>681.4705290832551</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>511.7125253339923</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>335.0054712957485</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4756,19 +4758,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1684.540277469974</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1439.148522803386</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1211.728852117495</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.45307593959</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.310603123013</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>912.4008182974576</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862856</v>
@@ -4805,19 +4807,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1963.754649317545</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.957962044036</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.712242384094</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>959.8976656237347</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252574</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759947</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F10" t="n">
-        <v>447.5546150377509</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635786</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539531</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434796</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687901</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1651.986723144624</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.594968478036</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1179.175297792144</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2193.218663108143</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1755.076190291566</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1319.166405466011</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1880.509478614942</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M11" t="n">
-        <v>1880.509478614942</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N11" t="n">
-        <v>1880.509478614942</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>1942.601722333201</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>2637.165918085825</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V11" t="n">
-        <v>2612.361126528832</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W11" t="n">
-        <v>2612.361126528832</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X11" t="n">
-        <v>2193.218663108143</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2193.218663108143</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>366.890248656548</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>366.890248656548</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>366.890248656548</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>366.890248656548</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>366.890248656548</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.906563138033</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883403</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753834</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.814604340125</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673538</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987646</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1791.820831731407</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.67835891483</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>917.7685740892747</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>483.9938292475699</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>176.1286096224173</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>870.6928053750404</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1565.257001127664</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>1565.257001127664</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>1565.257001127664</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>1565.257001127664</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>2626.406525916661</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>2626.406525916661</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2218.120402216315</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.801965382963</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M15" t="n">
-        <v>1024.801965382963</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N15" t="n">
-        <v>1024.801965382963</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.801965382963</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>744.2024157797618</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="C16" t="n">
-        <v>571.6407042629868</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="D16" t="n">
-        <v>405.7627114645095</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>236.0047077152468</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>59.29765367700296</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.440705184641</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.021034498749</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,22 +5518,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1162.814665109382</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
         <v>1008.757289365886</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2013.948813008508</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>414.500552094942</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>414.500552094942</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>414.500552094942</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1286.300469346935</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.300469346935</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557486</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>834.8539430951545</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>662.2922315783794</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>496.4142387799021</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6655,16 +6657,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1771.510391580329</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.483987166621</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1254.092232500033</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1026.672561814142</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6704,16 +6706,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6774,25 +6776,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>137.965694649704</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6940,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -7117,22 +7119,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
         <v>1371.99516675259</v>
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2460.632577573632</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7360,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1719.669093034862</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>1281.526620218286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1281.526620218286</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>1174.93860455395</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631575</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.037526580578</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M41" t="n">
-        <v>1942.601722333201</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N41" t="n">
-        <v>1942.601722333201</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>1942.601722333201</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>2637.165918085825</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155898</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2547.097680155898</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2547.097680155898</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>2127.955216735209</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>1719.669093034862</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M42" t="n">
-        <v>750.6905954094008</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N42" t="n">
-        <v>1445.254791162024</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O42" t="n">
-        <v>1445.254791162024</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C43" t="n">
-        <v>744.2024157797618</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D43" t="n">
-        <v>578.3244229812846</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E43" t="n">
-        <v>408.5664192320218</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F43" t="n">
-        <v>231.859365193778</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>196.0285739664031</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1971.734288653627</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>1533.59181583705</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1097.682031011495</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>663.90728616979</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>236.0398565789978</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963762</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>204.2812984327036</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862319</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="M44" t="n">
-        <v>1880.509478614942</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N44" t="n">
-        <v>1880.509478614942</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>1880.509478614942</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>2806.319982838882</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>2806.319982838882</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>2398.033859138535</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>653.8014906264534</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="F46" t="n">
-        <v>59.29765367700296</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677763</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8216,28 +8218,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>62.7194380992521</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>313.9028777775458</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>650.6234755151246</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,19 +10354,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>453.4964435270863</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>62.7194380992521</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
-        <v>158.523830181033</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>111.6274738523737</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>212.2804580932202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>166.971512818563</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>111.2039336442347</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23549,16 +23551,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>222.6925776900791</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>52.01701577190826</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>18.31929241554607</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>84.63380825304894</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>44.07191583437708</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>52.42554389793628</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>411.4732220987967</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>323.9148618855952</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>128.4628789093294</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>219.6821521891022</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>44.07191583437677</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>428236.99035356</v>
+        <v>606742.2997835428</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>428236.99035356</v>
+        <v>606742.2997835428</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>428236.99035356</v>
+        <v>606742.2997835428</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428236.99035356</v>
+        <v>606742.2997835426</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361899.4409260258</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
         <v>361899.4409260257</v>
@@ -26320,13 +26322,13 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="F2" t="n">
-        <v>235382.11178954</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="G2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
         <v>355628.8692927128</v>
@@ -26347,13 +26349,13 @@
         <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927129</v>
       </c>
       <c r="O2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172707</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="C4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="F4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26442,22 +26444,22 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="P4" t="n">
-        <v>53902.87451562436</v>
+        <v>76371.62315556087</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101275.8704793351</v>
+        <v>-101275.8704793353</v>
       </c>
       <c r="C6" t="n">
-        <v>122423.8281047096</v>
+        <v>122423.8281047095</v>
       </c>
       <c r="D6" t="n">
         <v>122423.8281047096</v>
       </c>
       <c r="E6" t="n">
-        <v>128652.1769343085</v>
+        <v>35195.59070763325</v>
       </c>
       <c r="F6" t="n">
-        <v>138823.1735347647</v>
+        <v>185861.3442793811</v>
       </c>
       <c r="G6" t="n">
-        <v>38411.58227176827</v>
+        <v>167381.2500452695</v>
       </c>
       <c r="H6" t="n">
         <v>196471.0592178775</v>
@@ -26546,22 +26548,22 @@
         <v>21819.71050017129</v>
       </c>
       <c r="K6" t="n">
-        <v>196471.0592178775</v>
+        <v>196471.0592178774</v>
       </c>
       <c r="L6" t="n">
-        <v>196471.0592178775</v>
+        <v>196471.0592178774</v>
       </c>
       <c r="M6" t="n">
-        <v>187981.9775145366</v>
+        <v>70719.97088218678</v>
       </c>
       <c r="N6" t="n">
         <v>196471.0592178775</v>
       </c>
       <c r="O6" t="n">
-        <v>138823.1735347647</v>
+        <v>185861.344279381</v>
       </c>
       <c r="P6" t="n">
-        <v>138823.1735347647</v>
+        <v>185861.3442793811</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>185.8757317238698</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>339.3090795914215</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>52.01701577190892</v>
       </c>
       <c r="C4" t="n">
-        <v>32.95267764171899</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>226.4723296792267</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.64838566658597</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>265.6623183857083</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>270.524159956766</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34702,10 +34704,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,28 +34938,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>62.7194380992521</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>313.9028777775458</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>650.6234755151246</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36844,16 +36846,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37072,19 +37074,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37306,22 +37308,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>453.4964435270863</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>62.7194380992521</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
-        <v>158.523830181033</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>111.6274738523737</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>212.2804580932202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>958655.8086645805</v>
+        <v>958049.7210356835</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797167</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>247.8853163645411</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,16 +670,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71.16696941141508</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8834167598883</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>134.2252585165367</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>306.1941869963596</v>
       </c>
       <c r="D5" t="n">
-        <v>205.0783572980732</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.9735834668218</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>44.69616728427791</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.6791025065772</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>407.6810791510306</v>
       </c>
       <c r="Y11" t="n">
-        <v>292.9993288191084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>83.42661545872168</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>312.7974431297824</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>145.83876749105</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.883416759889</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>109.142675762685</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>79.58540461744359</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>35.34780583513513</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3666,10 +3666,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>54.18430635300722</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>22.28782598961422</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>275.1599094763663</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>43.7728376562208</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,13 +3979,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>21.87520451048285</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>17.55115381536141</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C46" t="n">
-        <v>126.7641785672305</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389.6379614873604</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C2" t="n">
-        <v>139.2487530383289</v>
+        <v>614.758195394171</v>
       </c>
       <c r="D2" t="n">
-        <v>107.3793722531775</v>
+        <v>582.8888146090196</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187676</v>
+        <v>553.1544738077189</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>125.2870442169266</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>125.2870442169266</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4336,16 +4336,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1954.407975719776</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1954.407975719776</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722682</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.0196728252577</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4488,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.2549115535338</v>
+        <v>852.5762146508135</v>
       </c>
       <c r="C5" t="n">
-        <v>314.1124387369571</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4573,13 +4573,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>2005.983069159478</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.840605738788</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1178.554482038442</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4770,7 +4770,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1160.715522056492</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.526674939741</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2350.424615559456</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462403</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294652</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309879</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817252</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>77.9902918434814</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729424</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431415</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.133343351119</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652275</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.282663259699</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.665713193525</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3661.810258604559</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3242.66779518387</v>
+        <v>2946.29208781191</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,7 +5114,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5123,7 +5123,7 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.2661363957848</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>771.7044248790097</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>605.8264320805324</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312697</v>
+        <v>359.1371025824221</v>
       </c>
       <c r="F13" t="n">
-        <v>259.361374293026</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.190540178969</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.311093757424</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.878093010529</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.92258488096</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.896180467251</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.504425800664</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.084755114772</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F14" t="n">
         <v>784.2980852523735</v>
@@ -5272,58 +5272,58 @@
         <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.37507872995</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>2333.516638580385</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>2333.516638580385</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N14" t="n">
-        <v>2333.516638580385</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>3313.696305150691</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>4142.006179984088</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942682</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.193079588086</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.576129521913</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
-        <v>3773.720674932946</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.578211512257</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.29208781191</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>834.3885556154826</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>834.3885556154826</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>432.577349886819</v>
       </c>
       <c r="G16" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5515,25 +5515,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5764,40 +5764,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312517</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930079</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>537.3858472836109</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>303.5569696238763</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>137.965694649704</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7201,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055491</v>
+        <v>2509.218454644459</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>2071.075981827883</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1635.166197002327</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1201.391452160622</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>773.5240225698299</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>372.1261911930937</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240745</v>
+        <v>3343.804148829714</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540399</v>
+        <v>2935.518025129367</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.2661363957848</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>771.7044248790097</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>605.8264320805324</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E43" t="n">
-        <v>436.0684283312697</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F43" t="n">
-        <v>259.361374293026</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.311093757424</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2167.878093010529</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1880.92258488096</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1608.896180467251</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.504425800664</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.084755114772</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
         <v>1212.582304216026</v>
@@ -7642,58 +7642,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>204.2812984327036</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1038.631590390881</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1038.631590390881</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.631590390881</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8461154418378</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>653.8014906264534</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>487.9234978279761</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>487.9234978279761</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7851,7 +7851,7 @@
         <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>973.664734160825</v>
+        <v>1201.084404846717</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>979.9409695458944</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>979.9409695458944</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>979.9409695458944</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>111.6274738523737</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.269959635451755</v>
       </c>
       <c r="Y11" t="n">
-        <v>111.2039336442347</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>110.7913121651019</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>110.7913121651032</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.01701577190826</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.63380825304894</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>52.42554389793628</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>411.4732220987967</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>11.0789435348496</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C46" t="n">
-        <v>44.07191583437677</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606742.2997835428</v>
+        <v>606742.2997835429</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606742.2997835428</v>
+        <v>606742.2997835429</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606742.2997835426</v>
+        <v>606742.2997835429</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260258</v>
       </c>
       <c r="E2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172709</v>
       </c>
       <c r="F2" t="n">
         <v>333498.2429172707</v>
@@ -26343,19 +26343,19 @@
         <v>355628.8692927128</v>
       </c>
       <c r="L2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="M2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172709</v>
       </c>
       <c r="P2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165263.0882595585</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
         <v>165263.0882595585</v>
@@ -26426,40 +26426,40 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>76371.62315556087</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="F4" t="n">
-        <v>76371.62315556087</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="G4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
+        <v>81439.57146904281</v>
+      </c>
+      <c r="K4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="K4" t="n">
-        <v>81439.57146904284</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>76371.62315556087</v>
+        <v>76371.62315556088</v>
       </c>
       <c r="P4" t="n">
-        <v>76371.62315556087</v>
+        <v>76371.6231555609</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101275.8704793353</v>
+        <v>-101275.8704793352</v>
       </c>
       <c r="C6" t="n">
-        <v>122423.8281047095</v>
+        <v>122423.8281047096</v>
       </c>
       <c r="D6" t="n">
-        <v>122423.8281047096</v>
+        <v>122423.8281047097</v>
       </c>
       <c r="E6" t="n">
-        <v>35195.59070763325</v>
+        <v>35090.40108537854</v>
       </c>
       <c r="F6" t="n">
-        <v>185861.3442793811</v>
+        <v>185756.1546571264</v>
       </c>
       <c r="G6" t="n">
-        <v>167381.2500452695</v>
+        <v>167358.025705887</v>
       </c>
       <c r="H6" t="n">
-        <v>196471.0592178775</v>
+        <v>196447.8348784948</v>
       </c>
       <c r="I6" t="n">
-        <v>196471.0592178775</v>
+        <v>196447.8348784948</v>
       </c>
       <c r="J6" t="n">
-        <v>21819.71050017129</v>
+        <v>21796.48616078867</v>
       </c>
       <c r="K6" t="n">
-        <v>196471.0592178774</v>
+        <v>196447.8348784948</v>
       </c>
       <c r="L6" t="n">
-        <v>196471.0592178774</v>
+        <v>196447.8348784947</v>
       </c>
       <c r="M6" t="n">
-        <v>70719.97088218678</v>
+        <v>70696.74654280406</v>
       </c>
       <c r="N6" t="n">
-        <v>196471.0592178775</v>
+        <v>196447.8348784948</v>
       </c>
       <c r="O6" t="n">
-        <v>185861.344279381</v>
+        <v>185756.1546571266</v>
       </c>
       <c r="P6" t="n">
-        <v>185861.3442793811</v>
+        <v>185756.1546571265</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>185.8757317238698</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>215.0718835998008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.01701577190892</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>90.92021546249612</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>127.5668610920513</v>
       </c>
       <c r="D5" t="n">
-        <v>226.4723296792267</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27918,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>370.2548715022045</v>
       </c>
       <c r="Y8" t="n">
-        <v>270.524159956766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>661.3192390158827</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>661.3192390158827</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>979.9409695458944</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>979.9409695458944</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36436,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>979.9409695458944</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>111.6274738523737</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
